--- a/P0104/09_FICHAS/N3-FD-General.xlsx
+++ b/P0104/09_FICHAS/N3-FD-General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{86A57316-0C69-4C5F-8347-1C68770976BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F40F18F0-11BF-4D79-9B10-39E6AFB40693}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -84,13 +84,235 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>24.2.2.1. Color y turbiedad</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.2.Diseno\24.2.2.1. Color y turbiedad.pdf</t>
+  </si>
+  <si>
+    <t>AGUASCOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo "24.2.2.1. Color y turbiedad" corrresponde al anexo de diseño de la PTAP de Nechí. El documento contiene una tabla con el consolidado de color y turbiedad diaria para el año 2011, para el municipio de Caucasia. Se presentan también las turbiedades promedio, máxima y mínima evaluadas por trimestre. La turbiedad y el color corresponden a deteminantes de calidad del agua, claves para el diseño de la PTAP. </t>
+  </si>
+  <si>
+    <t>base de datos</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DESCONOCIDO</t>
+  </si>
+  <si>
+    <t>Se presenta la información para el municipio de Caucasia en el año 2011, no se sabe si es un error de digitación o corresponde al anexo de otro estudio. Variable: Color y turbiedad del agua</t>
+  </si>
+  <si>
+    <t>PTAP, diseño acueducto, Nechí, Caucasia, Aguascol, turbiedad, color, parámetros de calidad del agua, determinantes de calidad del agua, rio Cauca</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>24.2.2.1. Dosis y caudal</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.2.Diseno\24.2.2.1. Dosis y caudal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo "24.2.2.1. Dosis y caudal" corresponde a un anexo del diseño de la planta de tratamiento de agua potable del municipio de Caucasia. El documento contiene la relación mensual de consumo de insumos a nivel mensual, algunos de los insumos usados para el tratamiento del agua son Sulfato de Aluminio Líquido ( Kg/mes), Sulfato de Aluminio Líquido ( mg/seg), Sulfato de Aluminio Sólido (Kg/mes), Sulfato de Aluminio Sólido (mg/seg), Sulfato de Aluminio Sólido (mg/seg), Dosis Sulfato de Aluminio (mg/L), Caudal Promedio (L/seg), Horas de Tratamiento, Días de Tratamiento, Horas de no tratamiento, Días de no Tratamiento, Volumen de agua tratada (m3/mes), Cantidad aguas de lavado (m3/mes), Cantidad agua suministrada (m3/mes). Se calculan los promedios mensuales, máximo y mínimos anuales. </t>
+  </si>
+  <si>
+    <t>Se presenta la información para el municipio de Caucasia en el año 2011, no se sabe si es un error de digitación o corresponde al anexo de otro estudio. Variable: Cantidad agua suministrada (m3/mes)</t>
+  </si>
+  <si>
+    <t>PTAP, diseño acueducto, Nechí, Caucasia, Aguascol, caudal tratado, insumos de tratamiento de agua potable, aluminio, sulfato de aluminio, dias de tratamiento de agua potable, rio Cauca</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>24.2.2.1.Tratamiento_Lodos_REV2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.2.Diseno\24.2.2.1.Tratamiento_Lodos_REV2.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo "24.2.2.1.Tratamiento_Lodos_REV2" corresponde a un anexo y contiene las memorias de calculo del espesador de lodos y lechos de secado de la "CONSTRUCCIÓN SISTEMA DE TRATAMIENTO DE LODOS PARA PLANTA DE POTABILIZACIÓN EN LA ZONA URBANA DEL MUNICIPIO DE NECHÍ, ANTIOQUIA". En el archivo se presenta la producción de lodos, lodos producidos en el floculador, lodos producidos en el sedimentador, lodos producidos en el filtro, dimensionamiento del tanque homogeneizador, dimensionamiento del tanque espesador, dimensionamiento de las cámaras de secado. </t>
+  </si>
+  <si>
+    <t>memoria de calculo</t>
+  </si>
+  <si>
+    <t>xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se presenta información del dimensionamiento del tratamiento de lodos para la PTAP de Nechí. Variable: producción de lodos. </t>
+  </si>
+  <si>
+    <t>PTAP, diseño acueducto, Nechí, Aguascol, caudal tratado, insumos de tratamiento de agua potable, dias de tratamiento de agua potable, espesador de lodos, lechos de secado, rio Cauca</t>
+  </si>
+  <si>
+    <t>R0004</t>
+  </si>
+  <si>
+    <t>24.2.2.2. Bombeo_Cauca_REV2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.2.Diseno\24.2.2.2. Bombeo_Cauca_REV2.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El archivo "24.2.2.2. Bombeo_Cauca_REV2" corresponde a un anexo y contiene el DISEÑO HIDRÁULICO DEL SISTEMA DE BOMBEO PARA MUNICIPIO DE NECHÍ, en el marco del diseño de la PLANTA DE TRATAMIENTO DE AGUA POTABLE DEL MUNICIPIO DE NECHI. Se presenta el cálculo del caudal a bombear, se realiza el chequeo de la velocidad en la tubería de succión, se evalua la Cavitación en la bomba, potencia del motor de la bomba, se revisa el golpe de Ariete, y se dan conclusiones. El caudal de bombeo para el diseño hidráulico es de 40.3 L/s hasta una altura dinámica de 12.9m. </t>
+  </si>
+  <si>
+    <t>xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se presentan la información usada para el diseño de bombeo de la PTAP Nequi. Prinicpalmente se indica el caudal de bombeo y la altura dinámica. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTAP, diseño acueducto, Nechí, Caucasia, Aguascol, rio Cauca, caudal de bombeo, altura dinámica </t>
+  </si>
+  <si>
+    <t>R0005</t>
+  </si>
+  <si>
+    <t>24.2.2.3. Bombeo_Lodos_REV2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.2.Diseno\24.2.2.3. Bombeo_Lodos_REV2.xls</t>
+  </si>
+  <si>
+    <t>El archivo "24.2.2.3. Bombeo_Lodos_REV2" corresponde al anexo del diseño de la PLANTA DE TRATAMIENTO DE AGUA POTABLE DEL MUNICIPIO DE NECHI. El archivo contiene la memoria de calculo para el DISEÑO HIDRÁULICO DEL SISTEMA DE BOMBEO DEL TANQUE HOMOGENIZADOR EN TRATAMIENTO DE LODOS DE LA PLANTA DE POTABILIZACIÓN DEL MUNICIPIO DE NECHÍ, se presenta el calculo del caudal a bombear (11.15L/s), altura dinámica total (7.8m), potencia del motor de la bomba, golpe de ariete, se realizara un estudio económico de las alternativas para elegir la mas viable durante el periodo de diseño, este análisis se realiza teniendo en cuenta los costos por suministro, transporte, instalación y costos energéticos durante los próximos 25 años.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se presentan la información usada para el diseño de bombeo de la PTAP Nequi en el tanque homogeneizador. Prinicpalmente se indica el caudal de bombeo y la altura dinámica. </t>
+  </si>
+  <si>
+    <t>PTAP, diseño acueducto, Nechí, Caucasia, Aguascol, rio Cauca, caudal de bombeo, altura dinámica, tanque homogenizador</t>
+  </si>
+  <si>
+    <t>R0006</t>
+  </si>
+  <si>
+    <t>Informacion Planta Nechi</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.2.Diseno/24.2.2.4. Muestreos/INFO_PLANTA\Informacion Planta Nechi.xlsx</t>
+  </si>
+  <si>
+    <t>El archivo "Informacion Planta Nechi", presenta la información de caudal tratado, turbiedad, color, y turbiedad tratada para el año 2019 y 2020 con resolución diaria, en el marco del diseño de la PLANTA DE TRATAMIENTO DE AGUA POTABLE DEL MUNICIPIO DE NECHI.</t>
+  </si>
+  <si>
+    <t>Se presenta información de turbiedad, color, caudal tratado, y turbiedad tratada en los años 2019 y 2020. No se tiene mayor detalle del archivo que permita otras conclusiones.</t>
+  </si>
+  <si>
+    <t>PTAP, diseño acueducto, Nechí, Caucasia, Aguascol, turbiedad, color, parámetros de calidad del agua, determinantes de calidad del agua, caudal tratado, turbiedad tratada, rio Cauca</t>
+  </si>
+  <si>
+    <t>R0007</t>
+  </si>
+  <si>
+    <t>24.1.1-7. Proyeccion_Nechi</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.1.Proyección_Población_y_Caudales/24.1.1-7. Proyeccion_Nechi.xls</t>
+  </si>
+  <si>
+    <t>El archivo de Excel "24.1.1-7. Proyeccion_Nechi" contiene proyecciones de población para el municipio de Nechí, Antioquia, utilizando datos del DANE y diferentes métodos de proyección (geométrico, exponencial, y Wappus).  La hoja de cálculo incluye tasas de crecimiento calculadas a partir de censos históricos y proyecciones hasta el año 2049</t>
+  </si>
+  <si>
+    <t>Variables: Año, Proyecciones de población, Tasas de crecimiento</t>
+  </si>
+  <si>
+    <t>Proyección de población,  Nechí, Antioquia,  DANE,  métodos de proyección (geométrico, exponencial, Wappus),  crecimiento poblacional,  demanda de servicios,  planificación de infraestructura,  modelado de la demanda.</t>
+  </si>
+  <si>
+    <t>R0008</t>
+  </si>
+  <si>
+    <t>24.1.16 Calculo_dotacion_neta</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.1.Proyección_Población_y_Caudales/24.1.16 Calculo_dotacion_neta.xlsx</t>
+  </si>
+  <si>
+    <t>El archivo de Excel "24.1.16 Calculo_dotacion_neta" contiene datos de consumo de agua en el municipio de Nechí, Antioquia, para diferentes estratos socioeconómicos (1, 2, y 3),  para el sector comercial y para el sector oficial,  para el año 2015.  La hoja de cálculo muestra el consumo básico, complementario, y suntuario para cada estrato, el cálculo de la dotación neta, y el costo total.  También se incluye información sobre el cargo fijo mensual para cada estrato y el total de suscriptores.  Finalmente, se presentan datos agregados para todo el municipio.</t>
+  </si>
+  <si>
+    <t>Variables: Consumo básico (m³), Consumo complementario (m³), Consumo suntuario (m³), Consumo total (m³), Cargo fijo (COP), Número de suscriptore, Dotación neta (l/hab-día)</t>
+  </si>
+  <si>
+    <t>Consumo de agua, dotación neta,  estratificación socioeconómica,  Nechí, Antioquia,  demanda de agua,  modelado de la demanda,  planificación del acueducto,  costos del servicio.</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>R0009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPOGRAFIA PLANTA DE AGUA POTABLE NECHI ANTIOQUIA </t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.6.Estudio_Topográfico/24.5.2. Planos/PLANOS DWG/TOPOGRAFIA PLANTA DE AGUA POTABLE NECHI ANTIOQUIA .dwg</t>
+  </si>
+  <si>
+    <t>El archivo DWG 'TOPOGRAFIA PLANTA DE AGUA POTABLE NECHI ANTIOQUIA' contiene información topográfica detallada de la planta de tratamiento de agua potable en Nechí, Antioquia.  Este archivo se descompone en 40 capas vectoriales con información sobre la topografía, la infraestructura (andenes, cultivos, etc.) y puntos de control topográfico.  Esta información es fundamental para el modelado de inundaciones, el diseño de infraestructura, y la gestión de riesgos.  Se requiere un análisis detallado de cada capa para una interpretación completa y su posterior integración en el modelo de toma de decisiones.</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>dwg</t>
+  </si>
+  <si>
+    <t>Variables: coordenadas de los puntos, áreas de las zonas, longitudes de las líneas, pendientes</t>
+  </si>
+  <si>
+    <t>Topografía, planta de tratamiento de agua potable, Nechí, Antioquia,  DWG,  datos vectoriales,  puntos, líneas, polígonos,  curvas de nivel,  modelación hidrológica,  diseño de infraestructura, gestión de riesgo</t>
+  </si>
+  <si>
+    <t>R0010</t>
+  </si>
+  <si>
+    <t>NEC-DIG-TOP-1 (LEVANTAMIENTO  )</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.6.Estudio_Topográfico/24.5.6. Informacion_PMAA_Nechi/NEC-DIG-TOP-1 (LEVANTAMIENTO  ).dwg</t>
+  </si>
+  <si>
+    <t>ACUEDUCTOS Y ALCANTARILLADOS SOSTENIBLES S.A. E.S.P</t>
+  </si>
+  <si>
+    <t>El plano muestra la topografía de la zona urbana de Nechí a una escala de 1:2500.  Incluye puntos de georreferenciación, que permiten ubicar con precisión los elementos representados en un sistema de coordenadas (el sistema debe ser especificado en la información del archivo DWG).  También incluye una tabla de convenciones que define los símbolos utilizados para representar diferentes elementos, incluyendo vías, postes, y pozos de visita (maholes). La imagen muestra la topografía general de la zona y la localización de estos elementos.</t>
+  </si>
+  <si>
+    <t>Variable: coordenadas de los puntos de georeferenciación</t>
+  </si>
+  <si>
+    <t>Levantamiento topográfico, Nechí, Antioquia,  planos de diagnóstico,  acueducto, alcantarillado,  topografía,  georreferenciación,  modelación hidrológica,  gestión de riesgos,  planificación urbana, escala 1:2500.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,15 +321,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -117,29 +351,104 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,18 +729,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="41" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,19 +758,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -481,41 +798,502 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+    <row r="2" spans="1:16" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+    <row r="3" spans="1:16" s="3" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2021</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="12" customFormat="1">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="14">
+        <v>2023</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="C12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
